--- a/yide.xlsx
+++ b/yide.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>项目名称</t>
   </si>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>自动登陆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>头像、名字、身份、羽毛书、记录数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -358,6 +354,14 @@
   </si>
   <si>
     <t>翌得</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动等什么</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -593,6 +597,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,16 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -696,7 +700,7 @@
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1184,7 @@
       <c r="AB1" s="9"/>
     </row>
     <row r="2" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="17"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1207,12 +1211,12 @@
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
     </row>
     <row r="3" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1239,12 +1243,12 @@
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
     </row>
     <row r="4" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1271,12 +1275,12 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
     </row>
     <row r="5" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1303,12 +1307,12 @@
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
     </row>
     <row r="6" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
@@ -1337,20 +1341,20 @@
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
     </row>
     <row r="7" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1371,9 +1375,9 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1397,7 +1401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1454,772 +1458,774 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A7" s="19">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A10" s="19">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A12" s="19">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A13" s="19">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="22" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A14" s="19">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="22" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A15" s="19">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A16" s="19">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A17" s="19">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A18" s="19">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A19" s="19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A20" s="19">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A21" s="19">
-        <v>20</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A22" s="19">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A23" s="19">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A24" s="19">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A25" s="19">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A26" s="19">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A27" s="19">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A28" s="19">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A29" s="19">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A30" s="19">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A31" s="19">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A32" s="19">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A33" s="19">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A34" s="19">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A35" s="19">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A36" s="19">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A37" s="19">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A38" s="19">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A39" s="19">
-        <v>38</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A40" s="19">
-        <v>39</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B2:B40"/>
     <mergeCell ref="C12:C21"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C22:C32"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B2:B40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -2315,7 +2321,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
